--- a/auto/devices/AFM_STM32F411xx.xlsx
+++ b/auto/devices/AFM_STM32F411xx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="269">
   <si>
     <t>Device</t>
   </si>
@@ -22,6 +22,39 @@
     <t>STM32F411xx</t>
   </si>
   <si>
+    <t>Peripheral name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>RCC enable bit position</t>
+  </si>
+  <si>
+    <t>GPIOA</t>
+  </si>
+  <si>
+    <t>0x40020000</t>
+  </si>
+  <si>
+    <t>GPIOB</t>
+  </si>
+  <si>
+    <t>0x40020400</t>
+  </si>
+  <si>
+    <t>GPIOC</t>
+  </si>
+  <si>
+    <t>0x40020800</t>
+  </si>
+  <si>
+    <t>GPIOD</t>
+  </si>
+  <si>
+    <t>0x40020C00</t>
+  </si>
+  <si>
     <t>Stream 0</t>
   </si>
   <si>
@@ -52,61 +85,118 @@
     <t>SPI3_RX</t>
   </si>
   <si>
-    <t>Peripheral name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>RCC enable bit position</t>
-  </si>
-  <si>
-    <t>GPIOA</t>
-  </si>
-  <si>
-    <t>0x40020000</t>
-  </si>
-  <si>
-    <t>GPIOB</t>
-  </si>
-  <si>
-    <t>0x40020400</t>
-  </si>
-  <si>
-    <t>GPIOC</t>
-  </si>
-  <si>
-    <t>0x40020800</t>
-  </si>
-  <si>
-    <t>GPIOD</t>
-  </si>
-  <si>
-    <t>0x40020C00</t>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>AF0</t>
+  </si>
+  <si>
+    <t>AF1</t>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>AF3</t>
+  </si>
+  <si>
+    <t>AF4</t>
+  </si>
+  <si>
+    <t>AF5</t>
+  </si>
+  <si>
+    <t>AF6</t>
+  </si>
+  <si>
+    <t>AF7</t>
+  </si>
+  <si>
+    <t>AF8</t>
+  </si>
+  <si>
+    <t>AF9</t>
+  </si>
+  <si>
+    <t>AF10</t>
+  </si>
+  <si>
+    <t>AF11</t>
+  </si>
+  <si>
+    <t>AF12</t>
+  </si>
+  <si>
+    <t>AF13</t>
+  </si>
+  <si>
+    <t>AF14</t>
+  </si>
+  <si>
+    <t>AF15</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>TIM2_CH1</t>
+  </si>
+  <si>
+    <t>TIM5_CH1</t>
   </si>
   <si>
     <t>GPIOE</t>
   </si>
   <si>
+    <t>PA1</t>
+  </si>
+  <si>
     <t>0x40021000</t>
   </si>
   <si>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>TIM5_CH2</t>
+  </si>
+  <si>
+    <t>SPI4_MOSI</t>
+  </si>
+  <si>
     <t>Timer2</t>
   </si>
   <si>
     <t>0x4000 0000</t>
   </si>
   <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>SPI2_RX</t>
+  </si>
+  <si>
+    <t>SPI2_TX</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t>TIM5_CH3</t>
+  </si>
+  <si>
+    <t>TIM9_CH1</t>
+  </si>
+  <si>
     <t>Timer3</t>
   </si>
   <si>
+    <t>USART2_TX</t>
+  </si>
+  <si>
     <t>0x4000 0400</t>
   </si>
   <si>
-    <t>SPI2_RX</t>
-  </si>
-  <si>
-    <t>SPI2_TX</t>
+    <t>PA3</t>
   </si>
   <si>
     <t>Timer4</t>
@@ -115,61 +205,130 @@
     <t>0x4000 0800</t>
   </si>
   <si>
+    <t>TIM2_CH4</t>
+  </si>
+  <si>
+    <t>TIM5_CH4</t>
+  </si>
+  <si>
+    <t>TIM9_CH2</t>
+  </si>
+  <si>
     <t>Timer5</t>
   </si>
   <si>
+    <t>USART2_RX</t>
+  </si>
+  <si>
     <t>0x4000 0C00</t>
   </si>
   <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>SPI3_TX</t>
+  </si>
+  <si>
+    <t>SPI1_NSS</t>
+  </si>
+  <si>
+    <t>SPI3_NSS</t>
+  </si>
+  <si>
     <t>Timer1</t>
   </si>
   <si>
     <t>0x40010000</t>
   </si>
   <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>Channel 1</t>
+  </si>
+  <si>
+    <t>I2C1_RX</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
     <t>Timer9</t>
   </si>
   <si>
     <t>0x40014000</t>
   </si>
   <si>
+    <t>TIM7_UP</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
     <t>Timer10</t>
   </si>
   <si>
-    <t>SPI3_TX</t>
-  </si>
-  <si>
     <t>0x40014400</t>
   </si>
   <si>
     <t>Timer11</t>
   </si>
   <si>
+    <t>I2C1_TX</t>
+  </si>
+  <si>
     <t>0x40014800</t>
   </si>
   <si>
-    <t>Channel 1</t>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>TIM3_CH2</t>
+  </si>
+  <si>
+    <t>Channel 2</t>
   </si>
   <si>
     <t>I2C1</t>
   </si>
   <si>
-    <t>I2C1_RX</t>
+    <t>SPI1_MOSI</t>
   </si>
   <si>
     <t>0x4000 5400</t>
   </si>
   <si>
-    <t>TIM7_UP</t>
+    <t>TIM4_CH1</t>
   </si>
   <si>
     <t>I2C2</t>
   </si>
   <si>
+    <t>PA8</t>
+  </si>
+  <si>
     <t>0x4000 5800</t>
   </si>
   <si>
-    <t>I2C1_TX</t>
+    <t>TIM1_CH1</t>
+  </si>
+  <si>
+    <t>TIM4_CH2</t>
+  </si>
+  <si>
+    <t>I2C3_SCL</t>
+  </si>
+  <si>
+    <t>TIM4_UP</t>
+  </si>
+  <si>
+    <t>TIM4_CH3</t>
   </si>
   <si>
     <t>I2C3</t>
@@ -178,70 +337,109 @@
     <t>0x4000 5C00</t>
   </si>
   <si>
+    <t>Channel 3</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>TIM1_CH2</t>
+  </si>
+  <si>
+    <t>I2C3_RX</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
     <t>USART1</t>
   </si>
   <si>
+    <t>I2C3_TX</t>
+  </si>
+  <si>
     <t>0x4001 1000</t>
   </si>
   <si>
+    <t>TIM2_CH2 TIM2_CH4</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>TIM1_CH3</t>
+  </si>
+  <si>
+    <t>Channel 4</t>
+  </si>
+  <si>
+    <t>UART5_RX</t>
+  </si>
+  <si>
+    <t>SPI5_MOSI</t>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+  </si>
+  <si>
     <t>USART2</t>
   </si>
   <si>
+    <t>UART4_RX</t>
+  </si>
+  <si>
     <t>0x4000 4400</t>
   </si>
   <si>
-    <t>Channel 2</t>
-  </si>
-  <si>
-    <t>TIM4_CH1</t>
-  </si>
-  <si>
-    <t>TIM4_CH2</t>
+    <t>USART3_TX</t>
   </si>
   <si>
     <t>USART6</t>
   </si>
   <si>
-    <t>TIM4_UP</t>
-  </si>
-  <si>
-    <t>TIM4_CH3</t>
-  </si>
-  <si>
     <t>0x4001 1400</t>
   </si>
   <si>
-    <t>Channel 3</t>
+    <t>UART4_TX</t>
   </si>
   <si>
     <t>SPI1</t>
   </si>
   <si>
-    <t>TIM2_CH3</t>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>UART5_TX</t>
   </si>
   <si>
     <t>0x4001 3000</t>
   </si>
   <si>
-    <t>I2C3_RX</t>
-  </si>
-  <si>
-    <t>I2C3_TX</t>
+    <t>Channel 5</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>TIM3_CH4</t>
   </si>
   <si>
     <t>SPI2</t>
   </si>
   <si>
-    <t>TIM2_CH1</t>
+    <t>TIM1_CH4</t>
+  </si>
+  <si>
+    <t>TIM3_CH1 TIM3_TRIG</t>
   </si>
   <si>
     <t>0x4000 3800</t>
   </si>
   <si>
-    <t>TIM2_CH2 TIM2_CH4</t>
-  </si>
-  <si>
-    <t>TIM2_CH4</t>
+    <t>SPI4_MISO</t>
+  </si>
+  <si>
+    <t>USART6_TX</t>
   </si>
   <si>
     <t>SPI3</t>
@@ -250,282 +448,87 @@
     <t>0x4000 3C00</t>
   </si>
   <si>
-    <t>Channel 4</t>
-  </si>
-  <si>
-    <t>UART5_RX</t>
-  </si>
-  <si>
-    <t>USART3_RX</t>
+    <t>TIM3_CH3</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>SPI5_MISO</t>
+  </si>
+  <si>
+    <t>Channel 6</t>
   </si>
   <si>
     <t>SPI4</t>
   </si>
   <si>
-    <t>UART4_RX</t>
+    <t>TIM5_CH3 TIM5_UP</t>
+  </si>
+  <si>
+    <t>USART6_RX</t>
+  </si>
+  <si>
+    <t>TIM5_CH4 TIM5_TRIG</t>
   </si>
   <si>
     <t>0x4001 3400</t>
   </si>
   <si>
-    <t>USART3_TX</t>
-  </si>
-  <si>
-    <t>UART4_TX</t>
-  </si>
-  <si>
-    <t>USART2_RX</t>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>TIM5_UP</t>
   </si>
   <si>
     <t>SPI5</t>
   </si>
   <si>
-    <t>USART2_TX</t>
-  </si>
-  <si>
     <t>0x4001 5000</t>
   </si>
   <si>
-    <t>UART5_TX</t>
+    <t>Channel 7</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>TIM6_UP</t>
+  </si>
+  <si>
+    <t>I2C2_RX</t>
+  </si>
+  <si>
+    <t>DAC1</t>
   </si>
   <si>
     <t>DMA1</t>
   </si>
   <si>
-    <t>Channel 5</t>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>DAC2</t>
   </si>
   <si>
     <t>0x4002 6000</t>
   </si>
   <si>
-    <t>TIM3_CH4</t>
+    <t>I2C2_TX</t>
   </si>
   <si>
     <t>DMA2</t>
   </si>
   <si>
-    <t>TIM3_CH1 TIM3_TRIG</t>
-  </si>
-  <si>
     <t>0x4002 6400</t>
   </si>
   <si>
-    <t>TIM3_CH2</t>
-  </si>
-  <si>
-    <t>TIM3_CH3</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>AF0</t>
-  </si>
-  <si>
-    <t>AF1</t>
-  </si>
-  <si>
-    <t>AF2</t>
-  </si>
-  <si>
-    <t>AF3</t>
-  </si>
-  <si>
-    <t>AF4</t>
-  </si>
-  <si>
-    <t>AF5</t>
-  </si>
-  <si>
-    <t>AF6</t>
-  </si>
-  <si>
-    <t>Channel 6</t>
-  </si>
-  <si>
-    <t>AF7</t>
-  </si>
-  <si>
-    <t>TIM5_CH3 TIM5_UP</t>
-  </si>
-  <si>
-    <t>AF8</t>
-  </si>
-  <si>
-    <t>TIM5_CH4 TIM5_TRIG</t>
-  </si>
-  <si>
-    <t>AF9</t>
-  </si>
-  <si>
-    <t>AF10</t>
-  </si>
-  <si>
-    <t>TIM5_CH1</t>
-  </si>
-  <si>
-    <t>AF11</t>
-  </si>
-  <si>
-    <t>AF12</t>
-  </si>
-  <si>
-    <t>TIM5_CH2</t>
-  </si>
-  <si>
-    <t>AF13</t>
-  </si>
-  <si>
-    <t>AF14</t>
-  </si>
-  <si>
-    <t>AF15</t>
-  </si>
-  <si>
-    <t>TIM5_UP</t>
-  </si>
-  <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>Channel 7</t>
-  </si>
-  <si>
-    <t>TIM6_UP</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>I2C2_RX</t>
-  </si>
-  <si>
-    <t>TIM2_CH2</t>
-  </si>
-  <si>
-    <t>SPI4_MOSI</t>
-  </si>
-  <si>
-    <t>DAC1</t>
-  </si>
-  <si>
-    <t>PA2</t>
-  </si>
-  <si>
-    <t>DAC2</t>
-  </si>
-  <si>
-    <t>I2C2_TX</t>
-  </si>
-  <si>
-    <t>TIM5_CH3</t>
-  </si>
-  <si>
-    <t>TIM9_CH1</t>
-  </si>
-  <si>
-    <t>PA3</t>
-  </si>
-  <si>
-    <t>TIM5_CH4</t>
-  </si>
-  <si>
-    <t>TIM9_CH2</t>
-  </si>
-  <si>
-    <t>PA4</t>
-  </si>
-  <si>
-    <t>SPI1_NSS</t>
-  </si>
-  <si>
-    <t>SPI3_NSS</t>
-  </si>
-  <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>SPI1_SCK</t>
-  </si>
-  <si>
-    <t>PA6</t>
-  </si>
-  <si>
-    <t>TIM3_CH1</t>
-  </si>
-  <si>
-    <t>SPI1_MISO</t>
-  </si>
-  <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>SPI1_MOSI</t>
-  </si>
-  <si>
-    <t>PA8</t>
-  </si>
-  <si>
-    <t>TIM1_CH1</t>
-  </si>
-  <si>
-    <t>I2C3_SCL</t>
-  </si>
-  <si>
-    <t>PA9</t>
-  </si>
-  <si>
-    <t>TIM1_CH2</t>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-  </si>
-  <si>
-    <t>PA10</t>
-  </si>
-  <si>
-    <t>TIM1_CH3</t>
-  </si>
-  <si>
-    <t>SPI5_MOSI</t>
-  </si>
-  <si>
-    <t>USART1_RX</t>
-  </si>
-  <si>
-    <t>PA11</t>
-  </si>
-  <si>
-    <t>TIM1_CH4</t>
-  </si>
-  <si>
-    <t>SPI4_MISO</t>
-  </si>
-  <si>
-    <t>USART6_TX</t>
-  </si>
-  <si>
-    <t>PA12</t>
-  </si>
-  <si>
-    <t>SPI5_MISO</t>
-  </si>
-  <si>
-    <t>USART6_RX</t>
-  </si>
-  <si>
-    <t>PA13</t>
-  </si>
-  <si>
-    <t>PA14</t>
-  </si>
-  <si>
-    <t>PA15</t>
-  </si>
-  <si>
     <t>PB0</t>
   </si>
   <si>
+    <t>SYSCFG</t>
+  </si>
+  <si>
     <t>SPI5_SCK</t>
   </si>
   <si>
@@ -557,6 +560,9 @@
   </si>
   <si>
     <t>PB5</t>
+  </si>
+  <si>
+    <t>0x4001 3800</t>
   </si>
   <si>
     <t>SPI3_MOSI</t>
@@ -827,11 +833,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -853,17 +859,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -911,252 +920,252 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" t="s">
-        <v>141</v>
-      </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -1164,580 +1173,580 @@
         <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J42" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="G72" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H72" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="G73" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="G80" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H80" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="G81" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="H81" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -2689,21 +2698,21 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.0</v>
@@ -2711,10 +2720,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1.0</v>
@@ -2722,10 +2731,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2.0</v>
@@ -2733,10 +2742,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3.0</v>
@@ -2744,10 +2753,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>4.0</v>
@@ -2755,10 +2764,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>0.0</v>
@@ -2766,10 +2775,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>1.0</v>
@@ -2777,10 +2786,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>2.0</v>
@@ -2788,10 +2797,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>3.0</v>
@@ -2799,10 +2808,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>0.0</v>
@@ -2810,10 +2819,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>16.0</v>
@@ -2821,10 +2830,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>17.0</v>
@@ -2832,10 +2841,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>18.0</v>
@@ -2843,10 +2852,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>21.0</v>
@@ -2854,10 +2863,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>22.0</v>
@@ -2865,10 +2874,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C18">
         <v>23.0</v>
@@ -2876,10 +2885,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C19">
         <v>4.0</v>
@@ -2887,10 +2896,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C20">
         <v>17.0</v>
@@ -2898,10 +2907,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C21">
         <v>5.0</v>
@@ -2909,10 +2918,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>12.0</v>
@@ -2920,10 +2929,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C23">
         <v>14.0</v>
@@ -2931,10 +2940,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C24">
         <v>15.0</v>
@@ -2942,10 +2951,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="C25">
         <v>14.0</v>
@@ -2953,10 +2962,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>20.0</v>
@@ -2964,10 +2973,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="C27">
         <v>21.0</v>
@@ -2975,16 +2984,26 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="C28">
         <v>22.0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="4">
+        <v>14.0</v>
+      </c>
+    </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -3987,226 +4006,226 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="31.5" customHeight="1">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="31.5" customHeight="1">
       <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="31.5" customHeight="1">
       <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" ht="31.5" customHeight="1">
       <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>133</v>
+      <c r="G10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -5230,191 +5249,191 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="42.75" customHeight="1">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
       <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>118</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" ht="42.0" customHeight="1">
       <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" ht="42.75" customHeight="1">
       <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>266</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>

--- a/auto/devices/AFM_STM32F411xx.xlsx
+++ b/auto/devices/AFM_STM32F411xx.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Peripherals" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="DMA1" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="DMA2" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Vector table" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="510">
   <si>
     <t>Device</t>
   </si>
@@ -22,6 +23,36 @@
     <t>STM32F411xx</t>
   </si>
   <si>
+    <t>Stream 0</t>
+  </si>
+  <si>
+    <t>Stream 1</t>
+  </si>
+  <si>
+    <t>Stream 2</t>
+  </si>
+  <si>
+    <t>Stream 3</t>
+  </si>
+  <si>
+    <t>Stream 4</t>
+  </si>
+  <si>
+    <t>Stream 5</t>
+  </si>
+  <si>
+    <t>Stream 6</t>
+  </si>
+  <si>
+    <t>Stream 7</t>
+  </si>
+  <si>
+    <t>Channel 0</t>
+  </si>
+  <si>
+    <t>SPI3_RX</t>
+  </si>
+  <si>
     <t>Peripheral name</t>
   </si>
   <si>
@@ -55,34 +86,148 @@
     <t>0x40020C00</t>
   </si>
   <si>
-    <t>Stream 0</t>
-  </si>
-  <si>
-    <t>Stream 1</t>
-  </si>
-  <si>
-    <t>Stream 2</t>
-  </si>
-  <si>
-    <t>Stream 3</t>
-  </si>
-  <si>
-    <t>Stream 4</t>
-  </si>
-  <si>
-    <t>Stream 5</t>
-  </si>
-  <si>
-    <t>Stream 6</t>
-  </si>
-  <si>
-    <t>Stream 7</t>
-  </si>
-  <si>
-    <t>Channel 0</t>
-  </si>
-  <si>
-    <t>SPI3_RX</t>
+    <t>GPIOE</t>
+  </si>
+  <si>
+    <t>0x40021000</t>
+  </si>
+  <si>
+    <t>Timer2</t>
+  </si>
+  <si>
+    <t>0x4000 0000</t>
+  </si>
+  <si>
+    <t>Timer3</t>
+  </si>
+  <si>
+    <t>0x4000 0400</t>
+  </si>
+  <si>
+    <t>Timer4</t>
+  </si>
+  <si>
+    <t>0x4000 0800</t>
+  </si>
+  <si>
+    <t>Timer5</t>
+  </si>
+  <si>
+    <t>0x4000 0C00</t>
+  </si>
+  <si>
+    <t>Timer1</t>
+  </si>
+  <si>
+    <t>0x40010000</t>
+  </si>
+  <si>
+    <t>Timer9</t>
+  </si>
+  <si>
+    <t>0x40014000</t>
+  </si>
+  <si>
+    <t>Timer10</t>
+  </si>
+  <si>
+    <t>0x40014400</t>
+  </si>
+  <si>
+    <t>Timer11</t>
+  </si>
+  <si>
+    <t>0x40014800</t>
+  </si>
+  <si>
+    <t>I2C1</t>
+  </si>
+  <si>
+    <t>0x4000 5400</t>
+  </si>
+  <si>
+    <t>I2C2</t>
+  </si>
+  <si>
+    <t>0x4000 5800</t>
+  </si>
+  <si>
+    <t>I2C3</t>
+  </si>
+  <si>
+    <t>0x4000 5C00</t>
+  </si>
+  <si>
+    <t>USART1</t>
+  </si>
+  <si>
+    <t>0x4001 1000</t>
+  </si>
+  <si>
+    <t>USART2</t>
+  </si>
+  <si>
+    <t>0x4000 4400</t>
+  </si>
+  <si>
+    <t>USART6</t>
+  </si>
+  <si>
+    <t>0x4001 1400</t>
+  </si>
+  <si>
+    <t>SPI2_RX</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>SPI2_TX</t>
+  </si>
+  <si>
+    <t>0x4001 3000</t>
+  </si>
+  <si>
+    <t>SPI2</t>
+  </si>
+  <si>
+    <t>0x4000 3800</t>
+  </si>
+  <si>
+    <t>SPI3</t>
+  </si>
+  <si>
+    <t>0x4000 3C00</t>
+  </si>
+  <si>
+    <t>SPI4</t>
+  </si>
+  <si>
+    <t>0x4001 3400</t>
+  </si>
+  <si>
+    <t>SPI5</t>
+  </si>
+  <si>
+    <t>0x4001 5000</t>
+  </si>
+  <si>
+    <t>DMA1</t>
+  </si>
+  <si>
+    <t>0x4002 6000</t>
+  </si>
+  <si>
+    <t>DMA2</t>
+  </si>
+  <si>
+    <t>0x4002 6400</t>
+  </si>
+  <si>
+    <t>SYSCFG</t>
+  </si>
+  <si>
+    <t>0x4001 3800</t>
   </si>
   <si>
     <t>Pin</t>
@@ -145,13 +290,10 @@
     <t>TIM5_CH1</t>
   </si>
   <si>
-    <t>GPIOE</t>
-  </si>
-  <si>
     <t>PA1</t>
   </si>
   <si>
-    <t>0x40021000</t>
+    <t>SPI3_TX</t>
   </si>
   <si>
     <t>TIM2_CH2</t>
@@ -163,19 +305,13 @@
     <t>SPI4_MOSI</t>
   </si>
   <si>
-    <t>Timer2</t>
-  </si>
-  <si>
-    <t>0x4000 0000</t>
-  </si>
-  <si>
     <t>PA2</t>
   </si>
   <si>
-    <t>SPI2_RX</t>
-  </si>
-  <si>
-    <t>SPI2_TX</t>
+    <t>Channel 1</t>
+  </si>
+  <si>
+    <t>I2C1_RX</t>
   </si>
   <si>
     <t>TIM2_CH3</t>
@@ -184,27 +320,21 @@
     <t>TIM5_CH3</t>
   </si>
   <si>
+    <t>TIM7_UP</t>
+  </si>
+  <si>
     <t>TIM9_CH1</t>
   </si>
   <si>
-    <t>Timer3</t>
-  </si>
-  <si>
     <t>USART2_TX</t>
   </si>
   <si>
-    <t>0x4000 0400</t>
+    <t>I2C1_TX</t>
   </si>
   <si>
     <t>PA3</t>
   </si>
   <si>
-    <t>Timer4</t>
-  </si>
-  <si>
-    <t>0x4000 0800</t>
-  </si>
-  <si>
     <t>TIM2_CH4</t>
   </si>
   <si>
@@ -214,19 +344,19 @@
     <t>TIM9_CH2</t>
   </si>
   <si>
-    <t>Timer5</t>
+    <t>Channel 2</t>
   </si>
   <si>
     <t>USART2_RX</t>
   </si>
   <si>
-    <t>0x4000 0C00</t>
+    <t>TIM4_CH1</t>
   </si>
   <si>
     <t>PA4</t>
   </si>
   <si>
-    <t>SPI3_TX</t>
+    <t>TIM4_CH2</t>
   </si>
   <si>
     <t>SPI1_NSS</t>
@@ -235,55 +365,37 @@
     <t>SPI3_NSS</t>
   </si>
   <si>
-    <t>Timer1</t>
-  </si>
-  <si>
-    <t>0x40010000</t>
+    <t>TIM4_UP</t>
   </si>
   <si>
     <t>PA5</t>
   </si>
   <si>
-    <t>Channel 1</t>
-  </si>
-  <si>
-    <t>I2C1_RX</t>
+    <t>TIM4_CH3</t>
   </si>
   <si>
     <t>SPI1_SCK</t>
   </si>
   <si>
-    <t>Timer9</t>
-  </si>
-  <si>
-    <t>0x40014000</t>
-  </si>
-  <si>
-    <t>TIM7_UP</t>
+    <t>Channel 3</t>
   </si>
   <si>
     <t>PA6</t>
   </si>
   <si>
+    <t>I2C3_RX</t>
+  </si>
+  <si>
     <t>TIM3_CH1</t>
   </si>
   <si>
     <t>SPI1_MISO</t>
   </si>
   <si>
-    <t>Timer10</t>
-  </si>
-  <si>
-    <t>0x40014400</t>
-  </si>
-  <si>
-    <t>Timer11</t>
-  </si>
-  <si>
-    <t>I2C1_TX</t>
-  </si>
-  <si>
-    <t>0x40014800</t>
+    <t>I2C3_TX</t>
+  </si>
+  <si>
+    <t>TIM2_CH2 TIM2_CH4</t>
   </si>
   <si>
     <t>PA7</t>
@@ -292,76 +404,52 @@
     <t>TIM3_CH2</t>
   </si>
   <si>
-    <t>Channel 2</t>
-  </si>
-  <si>
-    <t>I2C1</t>
-  </si>
-  <si>
     <t>SPI1_MOSI</t>
   </si>
   <si>
-    <t>0x4000 5400</t>
-  </si>
-  <si>
-    <t>TIM4_CH1</t>
-  </si>
-  <si>
-    <t>I2C2</t>
+    <t>Channel 4</t>
+  </si>
+  <si>
+    <t>UART5_RX</t>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+  </si>
+  <si>
+    <t>UART4_RX</t>
   </si>
   <si>
     <t>PA8</t>
   </si>
   <si>
-    <t>0x4000 5800</t>
+    <t>USART3_TX</t>
   </si>
   <si>
     <t>TIM1_CH1</t>
   </si>
   <si>
-    <t>TIM4_CH2</t>
+    <t>UART4_TX</t>
   </si>
   <si>
     <t>I2C3_SCL</t>
   </si>
   <si>
-    <t>TIM4_UP</t>
-  </si>
-  <si>
-    <t>TIM4_CH3</t>
-  </si>
-  <si>
-    <t>I2C3</t>
-  </si>
-  <si>
-    <t>0x4000 5C00</t>
-  </si>
-  <si>
-    <t>Channel 3</t>
-  </si>
-  <si>
     <t>PA9</t>
   </si>
   <si>
+    <t>UART5_TX</t>
+  </si>
+  <si>
     <t>TIM1_CH2</t>
   </si>
   <si>
-    <t>I2C3_RX</t>
-  </si>
-  <si>
     <t>USART1_TX</t>
   </si>
   <si>
-    <t>USART1</t>
-  </si>
-  <si>
-    <t>I2C3_TX</t>
-  </si>
-  <si>
-    <t>0x4001 1000</t>
-  </si>
-  <si>
-    <t>TIM2_CH2 TIM2_CH4</t>
+    <t>Channel 5</t>
+  </si>
+  <si>
+    <t>TIM3_CH4</t>
   </si>
   <si>
     <t>PA10</t>
@@ -370,85 +458,37 @@
     <t>TIM1_CH3</t>
   </si>
   <si>
-    <t>Channel 4</t>
-  </si>
-  <si>
-    <t>UART5_RX</t>
+    <t>TIM3_CH1 TIM3_TRIG</t>
   </si>
   <si>
     <t>SPI5_MOSI</t>
   </si>
   <si>
-    <t>USART3_RX</t>
-  </si>
-  <si>
-    <t>USART2</t>
-  </si>
-  <si>
-    <t>UART4_RX</t>
-  </si>
-  <si>
-    <t>0x4000 4400</t>
-  </si>
-  <si>
-    <t>USART3_TX</t>
-  </si>
-  <si>
-    <t>USART6</t>
-  </si>
-  <si>
-    <t>0x4001 1400</t>
-  </si>
-  <si>
-    <t>UART4_TX</t>
-  </si>
-  <si>
-    <t>SPI1</t>
-  </si>
-  <si>
     <t>USART1_RX</t>
   </si>
   <si>
-    <t>UART5_TX</t>
-  </si>
-  <si>
-    <t>0x4001 3000</t>
-  </si>
-  <si>
-    <t>Channel 5</t>
+    <t>TIM3_CH3</t>
   </si>
   <si>
     <t>PA11</t>
   </si>
   <si>
-    <t>TIM3_CH4</t>
-  </si>
-  <si>
-    <t>SPI2</t>
-  </si>
-  <si>
     <t>TIM1_CH4</t>
   </si>
   <si>
-    <t>TIM3_CH1 TIM3_TRIG</t>
-  </si>
-  <si>
-    <t>0x4000 3800</t>
+    <t>Channel 6</t>
   </si>
   <si>
     <t>SPI4_MISO</t>
   </si>
   <si>
+    <t>TIM5_CH3 TIM5_UP</t>
+  </si>
+  <si>
     <t>USART6_TX</t>
   </si>
   <si>
-    <t>SPI3</t>
-  </si>
-  <si>
-    <t>0x4000 3C00</t>
-  </si>
-  <si>
-    <t>TIM3_CH3</t>
+    <t>TIM5_CH4 TIM5_TRIG</t>
   </si>
   <si>
     <t>PA12</t>
@@ -457,36 +497,15 @@
     <t>SPI5_MISO</t>
   </si>
   <si>
-    <t>Channel 6</t>
-  </si>
-  <si>
-    <t>SPI4</t>
-  </si>
-  <si>
-    <t>TIM5_CH3 TIM5_UP</t>
-  </si>
-  <si>
     <t>USART6_RX</t>
   </si>
   <si>
-    <t>TIM5_CH4 TIM5_TRIG</t>
-  </si>
-  <si>
-    <t>0x4001 3400</t>
+    <t>TIM5_UP</t>
   </si>
   <si>
     <t>PA13</t>
   </si>
   <si>
-    <t>TIM5_UP</t>
-  </si>
-  <si>
-    <t>SPI5</t>
-  </si>
-  <si>
-    <t>0x4001 5000</t>
-  </si>
-  <si>
     <t>Channel 7</t>
   </si>
   <si>
@@ -499,36 +518,21 @@
     <t>I2C2_RX</t>
   </si>
   <si>
+    <t>PA15</t>
+  </si>
+  <si>
     <t>DAC1</t>
   </si>
   <si>
-    <t>DMA1</t>
-  </si>
-  <si>
-    <t>PA15</t>
-  </si>
-  <si>
     <t>DAC2</t>
   </si>
   <si>
-    <t>0x4002 6000</t>
-  </si>
-  <si>
     <t>I2C2_TX</t>
   </si>
   <si>
-    <t>DMA2</t>
-  </si>
-  <si>
-    <t>0x4002 6400</t>
-  </si>
-  <si>
     <t>PB0</t>
   </si>
   <si>
-    <t>SYSCFG</t>
-  </si>
-  <si>
     <t>SPI5_SCK</t>
   </si>
   <si>
@@ -562,9 +566,6 @@
     <t>PB5</t>
   </si>
   <si>
-    <t>0x4001 3800</t>
-  </si>
-  <si>
     <t>SPI3_MOSI</t>
   </si>
   <si>
@@ -821,6 +822,729 @@
   </si>
   <si>
     <t>TIM8_CH4 TIM8_TRIG TIM8_COM</t>
+  </si>
+  <si>
+    <t>settable</t>
+  </si>
+  <si>
+    <t>WWDG</t>
+  </si>
+  <si>
+    <t>Window Watchdog interrupt</t>
+  </si>
+  <si>
+    <t>0x00000040</t>
+  </si>
+  <si>
+    <t>PVD</t>
+  </si>
+  <si>
+    <t>PVD through EXTI line detection interrupt</t>
+  </si>
+  <si>
+    <t>0x00000044</t>
+  </si>
+  <si>
+    <t>TAMP_STAMP</t>
+  </si>
+  <si>
+    <t>Tamper and TimeStamp interrupts through the EXTI line</t>
+  </si>
+  <si>
+    <t>0x00000048</t>
+  </si>
+  <si>
+    <t>RTC_WKUP</t>
+  </si>
+  <si>
+    <t>RTC Wakeup interrupt through the EXTI line</t>
+  </si>
+  <si>
+    <t>0x0000004C</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>Flash global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000050</t>
+  </si>
+  <si>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>RCC global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000054</t>
+  </si>
+  <si>
+    <t>EXTI0</t>
+  </si>
+  <si>
+    <t>EXTI Line0 interrupt</t>
+  </si>
+  <si>
+    <t>0x00000058</t>
+  </si>
+  <si>
+    <t>EXTI1</t>
+  </si>
+  <si>
+    <t>EXTI Line1 interrupt</t>
+  </si>
+  <si>
+    <t>0x0000005C</t>
+  </si>
+  <si>
+    <t>EXTI2</t>
+  </si>
+  <si>
+    <t>EXTI Line2 interrupt</t>
+  </si>
+  <si>
+    <t>0x00000060</t>
+  </si>
+  <si>
+    <t>EXTI3</t>
+  </si>
+  <si>
+    <t>EXTI Line3 interrupt</t>
+  </si>
+  <si>
+    <t>0x00000064</t>
+  </si>
+  <si>
+    <t>EXTI4</t>
+  </si>
+  <si>
+    <t>EXTI Line4 interrupt</t>
+  </si>
+  <si>
+    <t>0x00000068</t>
+  </si>
+  <si>
+    <t>DMA1_Stream0</t>
+  </si>
+  <si>
+    <t>DMA1 Stream0 global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000006C</t>
+  </si>
+  <si>
+    <t>DMA1_Stream1</t>
+  </si>
+  <si>
+    <t>DMA1 Stream1 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000070</t>
+  </si>
+  <si>
+    <t>DMA1_Stream2</t>
+  </si>
+  <si>
+    <t>DMA1 Stream2 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000074</t>
+  </si>
+  <si>
+    <t>DMA1_Stream3</t>
+  </si>
+  <si>
+    <t>DMA1 Stream3 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000078</t>
+  </si>
+  <si>
+    <t>DMA1_Stream4</t>
+  </si>
+  <si>
+    <t>DMA1 Stream4 global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000007C</t>
+  </si>
+  <si>
+    <t>DMA1_Stream5</t>
+  </si>
+  <si>
+    <t>DMA1 Stream5 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000080</t>
+  </si>
+  <si>
+    <t>DMA1_Stream6</t>
+  </si>
+  <si>
+    <t>DMA1 Stream6 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000084</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>ADC1, ADC2 and ADC3 global interrupts</t>
+  </si>
+  <si>
+    <t>0x00000088</t>
+  </si>
+  <si>
+    <t>CAN1_TX</t>
+  </si>
+  <si>
+    <t>CAN1 TX interrupts</t>
+  </si>
+  <si>
+    <t>0x0000008C</t>
+  </si>
+  <si>
+    <t>CAN1_RX0</t>
+  </si>
+  <si>
+    <t>CAN1 RX0 interrupts</t>
+  </si>
+  <si>
+    <t>0x00000090</t>
+  </si>
+  <si>
+    <t>CAN1_RX1</t>
+  </si>
+  <si>
+    <t>CAN1 RX1 interrupt</t>
+  </si>
+  <si>
+    <t>0x00000094</t>
+  </si>
+  <si>
+    <t>CAN1_SCE</t>
+  </si>
+  <si>
+    <t>CAN1 SCE interrupt</t>
+  </si>
+  <si>
+    <t>0x00000098</t>
+  </si>
+  <si>
+    <t>EXTI9_5</t>
+  </si>
+  <si>
+    <t>EXTI Line[9:5] interrupts</t>
+  </si>
+  <si>
+    <t>0x0000009C</t>
+  </si>
+  <si>
+    <t>TIM1_BRK_TIM9</t>
+  </si>
+  <si>
+    <t>TIM1 Break interrupt and TIM9 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000A0</t>
+  </si>
+  <si>
+    <t>TIM1_UP_TIM10</t>
+  </si>
+  <si>
+    <t>TIM1 Update interrupt and TIM10 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000A4</t>
+  </si>
+  <si>
+    <t>TIM1_TRG_COM_TIM11</t>
+  </si>
+  <si>
+    <t>TIM1 Trigger and Commutation interrupts and TIM11 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000A8</t>
+  </si>
+  <si>
+    <t>TIM1_CC</t>
+  </si>
+  <si>
+    <t>TIM1 Capture Compare interrupt</t>
+  </si>
+  <si>
+    <t>0x000000AC</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>TIM2 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000B0</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>TIM3 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000B4</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>TIM4 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000B8</t>
+  </si>
+  <si>
+    <t>I2C1_EV</t>
+  </si>
+  <si>
+    <t>I2C1 event interrupt</t>
+  </si>
+  <si>
+    <t>0x000000BC</t>
+  </si>
+  <si>
+    <t>I2C1_ER</t>
+  </si>
+  <si>
+    <t>I2C1 error interrupt</t>
+  </si>
+  <si>
+    <t>0x000000C0</t>
+  </si>
+  <si>
+    <t>I2C2_EV</t>
+  </si>
+  <si>
+    <t>I2C2 event interrupt</t>
+  </si>
+  <si>
+    <t>0x000000C4</t>
+  </si>
+  <si>
+    <t>I2C2_ER</t>
+  </si>
+  <si>
+    <t>I2C2 error interrupt</t>
+  </si>
+  <si>
+    <t>0x000000C8</t>
+  </si>
+  <si>
+    <t>SPI1 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000CC</t>
+  </si>
+  <si>
+    <t>SPI2 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000D0</t>
+  </si>
+  <si>
+    <t>USART1 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000D4</t>
+  </si>
+  <si>
+    <t>USART2 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000D8</t>
+  </si>
+  <si>
+    <t>USART3</t>
+  </si>
+  <si>
+    <t>USART3 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000DC</t>
+  </si>
+  <si>
+    <t>EXTI15_10</t>
+  </si>
+  <si>
+    <t>EXTI Line[15:10] interrupts</t>
+  </si>
+  <si>
+    <t>0x000000E0</t>
+  </si>
+  <si>
+    <t>RTC_Alarm</t>
+  </si>
+  <si>
+    <t>RTC Alarms (A and B) through EXTI line interrupt</t>
+  </si>
+  <si>
+    <t>0x000000E4</t>
+  </si>
+  <si>
+    <t>OTG_FS_WKUP</t>
+  </si>
+  <si>
+    <t>USB On-The-Go FS Wakeup through EXTI line interrupt</t>
+  </si>
+  <si>
+    <t>0x000000E8</t>
+  </si>
+  <si>
+    <t>TIM8_BRK_TIM12</t>
+  </si>
+  <si>
+    <t>TIM8 Break interrupt and TIM12 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000EC</t>
+  </si>
+  <si>
+    <t>TIM8_UP_TIM13</t>
+  </si>
+  <si>
+    <t>TIM8 Update interrupt and TIM13 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000F0</t>
+  </si>
+  <si>
+    <t>TIM8_TRG_COM_TIM14</t>
+  </si>
+  <si>
+    <t>TIM8 Trigger and Commutation interrupts and TIM14 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000F4</t>
+  </si>
+  <si>
+    <t>TIM8_CC</t>
+  </si>
+  <si>
+    <t>TIM8 Capture Compare interrupt</t>
+  </si>
+  <si>
+    <t>0x000000F8</t>
+  </si>
+  <si>
+    <t>DMA1_Stream7</t>
+  </si>
+  <si>
+    <t>DMA1 Stream7 global interrupt</t>
+  </si>
+  <si>
+    <t>0x000000FC</t>
+  </si>
+  <si>
+    <t>FSMC</t>
+  </si>
+  <si>
+    <t>FSMC global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000100</t>
+  </si>
+  <si>
+    <t>SDIO</t>
+  </si>
+  <si>
+    <t>SDIO global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000104</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>TIM5 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000108</t>
+  </si>
+  <si>
+    <t>SPI3 global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000010C</t>
+  </si>
+  <si>
+    <t>UART4</t>
+  </si>
+  <si>
+    <t>UART4 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000110</t>
+  </si>
+  <si>
+    <t>UART5</t>
+  </si>
+  <si>
+    <t>UART5 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000114</t>
+  </si>
+  <si>
+    <t>TIM6_DAC</t>
+  </si>
+  <si>
+    <t>TIM6 global interrupt, DAC1 and DAC2 underrun error interrupts</t>
+  </si>
+  <si>
+    <t>0x00000118</t>
+  </si>
+  <si>
+    <t>TIM7</t>
+  </si>
+  <si>
+    <t>TIM7 global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000011C</t>
+  </si>
+  <si>
+    <t>DMA2_Stream0</t>
+  </si>
+  <si>
+    <t>DMA2 Stream0 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000120</t>
+  </si>
+  <si>
+    <t>DMA2_Stream1</t>
+  </si>
+  <si>
+    <t>DMA2 Stream1 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000124</t>
+  </si>
+  <si>
+    <t>DMA2_Stream2</t>
+  </si>
+  <si>
+    <t>DMA2 Stream2 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000128</t>
+  </si>
+  <si>
+    <t>DMA2_Stream3</t>
+  </si>
+  <si>
+    <t>DMA2 Stream3 global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000012C</t>
+  </si>
+  <si>
+    <t>DMA2_Stream4</t>
+  </si>
+  <si>
+    <t>DMA2 Stream4 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000130</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Ethernet global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000134</t>
+  </si>
+  <si>
+    <t>ETH_WKUP</t>
+  </si>
+  <si>
+    <t>Ethernet Wakeup through EXTI line interrupt</t>
+  </si>
+  <si>
+    <t>0x00000138</t>
+  </si>
+  <si>
+    <t>CAN2_TX</t>
+  </si>
+  <si>
+    <t>CAN2 TX interrupts</t>
+  </si>
+  <si>
+    <t>0x0000013C</t>
+  </si>
+  <si>
+    <t>CAN2_RX0</t>
+  </si>
+  <si>
+    <t>CAN2 RX0 interrupts</t>
+  </si>
+  <si>
+    <t>0x00000140</t>
+  </si>
+  <si>
+    <t>CAN2_RX1</t>
+  </si>
+  <si>
+    <t>CAN2 RX1 interrupt</t>
+  </si>
+  <si>
+    <t>0x00000144</t>
+  </si>
+  <si>
+    <t>CAN2_SCE</t>
+  </si>
+  <si>
+    <t>CAN2 SCE interrupt</t>
+  </si>
+  <si>
+    <t>0x00000148</t>
+  </si>
+  <si>
+    <t>OTG_FS</t>
+  </si>
+  <si>
+    <t>USB On The Go FS global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000014C</t>
+  </si>
+  <si>
+    <t>DMA2_Stream5</t>
+  </si>
+  <si>
+    <t>DMA2 Stream5 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000150</t>
+  </si>
+  <si>
+    <t>DMA2_Stream6</t>
+  </si>
+  <si>
+    <t>DMA2 Stream6 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000154</t>
+  </si>
+  <si>
+    <t>DMA2_Stream7</t>
+  </si>
+  <si>
+    <t>DMA2 Stream7 global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000158</t>
+  </si>
+  <si>
+    <t>USART6 global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000015C</t>
+  </si>
+  <si>
+    <t>I2C3_EV</t>
+  </si>
+  <si>
+    <t>I2C3 event interrupt</t>
+  </si>
+  <si>
+    <t>0x00000160</t>
+  </si>
+  <si>
+    <t>I2C3_ER</t>
+  </si>
+  <si>
+    <t>I2C3 error interrupt</t>
+  </si>
+  <si>
+    <t>0x00000164</t>
+  </si>
+  <si>
+    <t>OTG_HS_EP1_OUT</t>
+  </si>
+  <si>
+    <t>USB On The Go HS End Point 1 Out global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000168</t>
+  </si>
+  <si>
+    <t>OTG_HS_EP1_IN</t>
+  </si>
+  <si>
+    <t>USB On The Go HS End Point 1 In global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000016C</t>
+  </si>
+  <si>
+    <t>OTG_HS_WKUP</t>
+  </si>
+  <si>
+    <t>USB On The Go HS Wakeup through EXTI interrupt</t>
+  </si>
+  <si>
+    <t>0x00000170</t>
+  </si>
+  <si>
+    <t>OTG_HS</t>
+  </si>
+  <si>
+    <t>USB On The Go HS global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000174</t>
+  </si>
+  <si>
+    <t>DCMI</t>
+  </si>
+  <si>
+    <t>DCMI global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000178</t>
+  </si>
+  <si>
+    <t>CRYP</t>
+  </si>
+  <si>
+    <t>CRYP crypto global interrupt</t>
+  </si>
+  <si>
+    <t>0x0000017C</t>
+  </si>
+  <si>
+    <t>HASH_RNG</t>
+  </si>
+  <si>
+    <t>Hash and Rng global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000180</t>
+  </si>
+  <si>
+    <t>FPU</t>
+  </si>
+  <si>
+    <t>FPU global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000184</t>
   </si>
 </sst>
 </file>
@@ -833,11 +1557,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -859,19 +1583,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,6 +1627,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -920,327 +1654,327 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
         <v>183</v>
@@ -1251,13 +1985,13 @@
         <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1265,13 +1999,13 @@
         <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
         <v>187</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1279,7 +2013,7 @@
         <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
         <v>189</v>
@@ -1288,10 +2022,10 @@
         <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1311,7 +2045,7 @@
         <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -1319,7 +2053,7 @@
         <v>194</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>195</v>
@@ -1333,10 +2067,10 @@
         <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1350,7 +2084,7 @@
         <v>199</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1421,10 +2155,10 @@
         <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J41" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -1432,13 +2166,13 @@
         <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
         <v>196</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -1446,7 +2180,7 @@
         <v>214</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -1454,10 +2188,10 @@
         <v>215</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -1465,7 +2199,7 @@
         <v>216</v>
       </c>
       <c r="H45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -1473,7 +2207,7 @@
         <v>217</v>
       </c>
       <c r="H46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -1532,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -1543,7 +2277,7 @@
         <v>183</v>
       </c>
       <c r="I57" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -1576,7 +2310,7 @@
         <v>234</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -1584,7 +2318,7 @@
         <v>235</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -1592,7 +2326,7 @@
         <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -1621,7 +2355,7 @@
         <v>201</v>
       </c>
       <c r="H69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -1637,7 +2371,7 @@
         <v>199</v>
       </c>
       <c r="H71" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -1645,13 +2379,13 @@
         <v>243</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="G72" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H72" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -1659,13 +2393,13 @@
         <v>244</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="H73" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -1683,7 +2417,7 @@
         <v>247</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -1696,13 +2430,13 @@
         <v>249</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="G78" t="s">
         <v>199</v>
       </c>
       <c r="H78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -1713,7 +2447,7 @@
         <v>201</v>
       </c>
       <c r="H79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -1721,13 +2455,13 @@
         <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="G80" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H80" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -1735,13 +2469,13 @@
         <v>252</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="H81" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -2698,21 +3432,21 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0.0</v>
@@ -2720,10 +3454,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1.0</v>
@@ -2731,10 +3465,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2.0</v>
@@ -2742,10 +3476,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>3.0</v>
@@ -2753,10 +3487,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>4.0</v>
@@ -2764,10 +3498,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0.0</v>
@@ -2775,10 +3509,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1.0</v>
@@ -2786,10 +3520,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>2.0</v>
@@ -2797,10 +3531,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>3.0</v>
@@ -2808,10 +3542,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>0.0</v>
@@ -2819,10 +3553,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>16.0</v>
@@ -2830,10 +3564,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>17.0</v>
@@ -2841,10 +3575,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>18.0</v>
@@ -2852,10 +3586,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>21.0</v>
@@ -2863,10 +3597,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>22.0</v>
@@ -2874,10 +3608,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>23.0</v>
@@ -2885,10 +3619,10 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>4.0</v>
@@ -2896,10 +3630,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>17.0</v>
@@ -2907,10 +3641,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>5.0</v>
@@ -2918,10 +3652,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>12.0</v>
@@ -2929,10 +3663,10 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>14.0</v>
@@ -2940,10 +3674,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>15.0</v>
@@ -2951,10 +3685,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>14.0</v>
@@ -2962,10 +3696,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>20.0</v>
@@ -2973,10 +3707,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C27">
         <v>21.0</v>
@@ -2984,23 +3718,23 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>22.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
         <v>14.0</v>
       </c>
     </row>
@@ -4006,226 +4740,226 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="31.5" customHeight="1">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="31.5" customHeight="1">
       <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" ht="31.5" customHeight="1">
       <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" ht="31.5" customHeight="1">
       <c r="A10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>166</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -5249,190 +5983,190 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="42.75" customHeight="1">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>257</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
       <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>111</v>
+      <c r="D7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="42.0" customHeight="1">
       <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" ht="42.75" customHeight="1">
       <c r="A10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6429,4 +7163,3098 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.29"/>
+    <col customWidth="1" min="2" max="2" width="15.0"/>
+    <col customWidth="1" min="3" max="3" width="11.71"/>
+    <col customWidth="1" min="4" max="4" width="21.29"/>
+    <col customWidth="1" min="5" max="5" width="52.71"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" customHeight="1">
+      <c r="A3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="31.5" customHeight="1">
+      <c r="A4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="31.5" customHeight="1">
+      <c r="A5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="31.5" customHeight="1">
+      <c r="A6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="31.5" customHeight="1">
+      <c r="A7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="42.0" customHeight="1">
+      <c r="A9" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="30.75" customHeight="1">
+      <c r="A10" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="4">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="4">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="4">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="4">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="4">
+        <v>47.0</v>
+      </c>
+      <c r="B49" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="4">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="4">
+        <v>49.0</v>
+      </c>
+      <c r="B51" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="B52" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="4">
+        <v>51.0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="4">
+        <v>52.0</v>
+      </c>
+      <c r="B54" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="B55" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4">
+        <v>54.0</v>
+      </c>
+      <c r="B56" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="B57" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="B58" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="4">
+        <v>57.0</v>
+      </c>
+      <c r="B59" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="4">
+        <v>58.0</v>
+      </c>
+      <c r="B60" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="B61" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="B62" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="B63" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="B64" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="B65" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="B66" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="4">
+        <v>65.0</v>
+      </c>
+      <c r="B67" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="4">
+        <v>66.0</v>
+      </c>
+      <c r="B68" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="B69" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="B70" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="4">
+        <v>69.0</v>
+      </c>
+      <c r="B71" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="B72" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="4">
+        <v>71.0</v>
+      </c>
+      <c r="B73" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="B74" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="4">
+        <v>73.0</v>
+      </c>
+      <c r="B75" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="B76" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="B77" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="B78" s="4">
+        <v>83.0</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="4">
+        <v>77.0</v>
+      </c>
+      <c r="B79" s="4">
+        <v>84.0</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="4">
+        <v>78.0</v>
+      </c>
+      <c r="B80" s="4">
+        <v>85.0</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="4">
+        <v>79.0</v>
+      </c>
+      <c r="B81" s="4">
+        <v>86.0</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="4">
+        <v>80.0</v>
+      </c>
+      <c r="B82" s="4">
+        <v>87.0</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="4">
+        <v>81.0</v>
+      </c>
+      <c r="B83" s="4">
+        <v>88.0</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/auto/devices/AFM_STM32F411xx.xlsx
+++ b/auto/devices/AFM_STM32F411xx.xlsx
@@ -4,10 +4,11 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="AFM" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Peripherals" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="DMA1" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="DMA2" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Vector table" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="ADC1" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Peripherals" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="DMA1" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="DMA2" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="Vector table" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="529">
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
   <si>
     <t>Device</t>
   </si>
@@ -23,6 +30,690 @@
     <t>STM32F411xx</t>
   </si>
   <si>
+    <t>Peripheral name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>RCC enable bit position</t>
+  </si>
+  <si>
+    <t>GPIOA</t>
+  </si>
+  <si>
+    <t>0x40020000</t>
+  </si>
+  <si>
+    <t>ADC Channel 0</t>
+  </si>
+  <si>
+    <t>GPIOB</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>0x40020400</t>
+  </si>
+  <si>
+    <t>ADC Channel 1</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>GPIOC</t>
+  </si>
+  <si>
+    <t>0x40020800</t>
+  </si>
+  <si>
+    <t>ADC Channel 2</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>GPIOD</t>
+  </si>
+  <si>
+    <t>0x40020C00</t>
+  </si>
+  <si>
+    <t>ADC Channel 3</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>GPIOE</t>
+  </si>
+  <si>
+    <t>0x40021000</t>
+  </si>
+  <si>
+    <t>ADC Channel 4</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>Timer2</t>
+  </si>
+  <si>
+    <t>0x4000 0000</t>
+  </si>
+  <si>
+    <t>ADC Channel 5</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>ADC Channel 6</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>ADC Channel 7</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>ADC Channel 8</t>
+  </si>
+  <si>
+    <t>Timer3</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>0x4000 0400</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>AF0</t>
+  </si>
+  <si>
+    <t>ADC Channel 9</t>
+  </si>
+  <si>
+    <t>AF1</t>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>AF3</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>AF4</t>
+  </si>
+  <si>
+    <t>AF5</t>
+  </si>
+  <si>
+    <t>Timer4</t>
+  </si>
+  <si>
+    <t>AF6</t>
+  </si>
+  <si>
+    <t>0x4000 0800</t>
+  </si>
+  <si>
+    <t>ADC Channel 10</t>
+  </si>
+  <si>
+    <t>AF7</t>
+  </si>
+  <si>
+    <t>PC0</t>
+  </si>
+  <si>
+    <t>AF8</t>
+  </si>
+  <si>
+    <t>AF9</t>
+  </si>
+  <si>
+    <t>AF10</t>
+  </si>
+  <si>
+    <t>Timer5</t>
+  </si>
+  <si>
+    <t>AF11</t>
+  </si>
+  <si>
+    <t>AF12</t>
+  </si>
+  <si>
+    <t>0x4000 0C00</t>
+  </si>
+  <si>
+    <t>ADC Channel 11</t>
+  </si>
+  <si>
+    <t>AF13</t>
+  </si>
+  <si>
+    <t>AF14</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>AF15</t>
+  </si>
+  <si>
+    <t>Timer1</t>
+  </si>
+  <si>
+    <t>0x40010000</t>
+  </si>
+  <si>
+    <t>ADC Channel 12</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>TIM2_CH1</t>
+  </si>
+  <si>
+    <t>Timer9</t>
+  </si>
+  <si>
+    <t>TIM5_CH1</t>
+  </si>
+  <si>
+    <t>ADC Channel 13</t>
+  </si>
+  <si>
+    <t>0x40014000</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>TIM5_CH2</t>
+  </si>
+  <si>
+    <t>SPI4_MOSI</t>
+  </si>
+  <si>
+    <t>Timer10</t>
+  </si>
+  <si>
+    <t>ADC Channel 14</t>
+  </si>
+  <si>
+    <t>0x40014400</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t>TIM5_CH3</t>
+  </si>
+  <si>
+    <t>TIM9_CH1</t>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+  </si>
+  <si>
+    <t>ADC Channel 15</t>
+  </si>
+  <si>
+    <t>TIM2_CH4</t>
+  </si>
+  <si>
+    <t>Timer11</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>TIM5_CH4</t>
+  </si>
+  <si>
+    <t>0x40014800</t>
+  </si>
+  <si>
+    <t>TIM9_CH2</t>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+  </si>
+  <si>
+    <t>SPI1_NSS</t>
+  </si>
+  <si>
+    <t>SPI3_NSS</t>
+  </si>
+  <si>
+    <t>I2C1</t>
+  </si>
+  <si>
+    <t>0x4000 5400</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>I2C2</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>0x4000 5800</t>
+  </si>
+  <si>
+    <t>TIM3_CH2</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>I2C3</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>TIM1_CH1</t>
+  </si>
+  <si>
+    <t>0x4000 5C00</t>
+  </si>
+  <si>
+    <t>I2C3_SCL</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>TIM1_CH2</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>USART1</t>
+  </si>
+  <si>
+    <t>0x4001 1000</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>TIM1_CH3</t>
+  </si>
+  <si>
+    <t>SPI5_MOSI</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>USART2</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>TIM1_CH4</t>
+  </si>
+  <si>
+    <t>0x4000 4400</t>
+  </si>
+  <si>
+    <t>SPI4_MISO</t>
+  </si>
+  <si>
+    <t>USART6_TX</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>SPI5_MISO</t>
+  </si>
+  <si>
+    <t>USART6_RX</t>
+  </si>
+  <si>
+    <t>USART6</t>
+  </si>
+  <si>
+    <t>0x4001 1400</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>0x4001 3000</t>
+  </si>
+  <si>
+    <t>TIM3_CH3</t>
+  </si>
+  <si>
+    <t>SPI2</t>
+  </si>
+  <si>
+    <t>SPI5_SCK</t>
+  </si>
+  <si>
+    <t>0x4000 3800</t>
+  </si>
+  <si>
+    <t>TIM3_CH4</t>
+  </si>
+  <si>
+    <t>SPI5_NSS</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>SPI3</t>
+  </si>
+  <si>
+    <t>0x4000 3C00</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>SPI3_SCK</t>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+  </si>
+  <si>
+    <t>SPI4</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>0x4001 3400</t>
+  </si>
+  <si>
+    <t>SPI3_MISO</t>
+  </si>
+  <si>
+    <t>I2C3_SDA</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>SPI5</t>
+  </si>
+  <si>
+    <t>SPI3_MOSI</t>
+  </si>
+  <si>
+    <t>0x4001 5000</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>TIM4_CH1</t>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+  </si>
+  <si>
+    <t>DMA1</t>
+  </si>
+  <si>
+    <t>0x4002 6000</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>TIM4_CH2</t>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+  </si>
+  <si>
+    <t>DMA2</t>
+  </si>
+  <si>
+    <t>0x4002 6400</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>SYSCFG</t>
+  </si>
+  <si>
+    <t>TIM4_CH3</t>
+  </si>
+  <si>
+    <t>0x4001 3800</t>
+  </si>
+  <si>
+    <t>TIM10_CH1</t>
+  </si>
+  <si>
+    <t>ADC1</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>0x4001 2000</t>
+  </si>
+  <si>
+    <t>TIM4_CH4</t>
+  </si>
+  <si>
+    <t>TIM11_CH1</t>
+  </si>
+  <si>
+    <t>SPI2_NSS</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+  </si>
+  <si>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>SPI4_NSS</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>SPI4_SCK</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>SPI2_MISO</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>SPI2_MOSI</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD5</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t>PD8</t>
+  </si>
+  <si>
+    <t>PD9</t>
+  </si>
+  <si>
+    <t>PD10</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>PD13</t>
+  </si>
+  <si>
+    <t>PD14</t>
+  </si>
+  <si>
+    <t>PD15</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>PE6</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>PE13</t>
+  </si>
+  <si>
+    <t>PE14</t>
+  </si>
+  <si>
+    <t>PE15</t>
+  </si>
+  <si>
     <t>Stream 0</t>
   </si>
   <si>
@@ -53,259 +744,19 @@
     <t>SPI3_RX</t>
   </si>
   <si>
-    <t>Peripheral name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>RCC enable bit position</t>
-  </si>
-  <si>
-    <t>GPIOA</t>
-  </si>
-  <si>
-    <t>0x40020000</t>
-  </si>
-  <si>
-    <t>GPIOB</t>
-  </si>
-  <si>
-    <t>0x40020400</t>
-  </si>
-  <si>
-    <t>GPIOC</t>
-  </si>
-  <si>
-    <t>0x40020800</t>
-  </si>
-  <si>
-    <t>GPIOD</t>
-  </si>
-  <si>
-    <t>0x40020C00</t>
-  </si>
-  <si>
-    <t>GPIOE</t>
-  </si>
-  <si>
-    <t>0x40021000</t>
-  </si>
-  <si>
-    <t>Timer2</t>
-  </si>
-  <si>
-    <t>0x4000 0000</t>
-  </si>
-  <si>
-    <t>Timer3</t>
-  </si>
-  <si>
-    <t>0x4000 0400</t>
-  </si>
-  <si>
-    <t>Timer4</t>
-  </si>
-  <si>
-    <t>0x4000 0800</t>
-  </si>
-  <si>
-    <t>Timer5</t>
-  </si>
-  <si>
-    <t>0x4000 0C00</t>
-  </si>
-  <si>
-    <t>Timer1</t>
-  </si>
-  <si>
-    <t>0x40010000</t>
-  </si>
-  <si>
-    <t>Timer9</t>
-  </si>
-  <si>
-    <t>0x40014000</t>
-  </si>
-  <si>
-    <t>Timer10</t>
-  </si>
-  <si>
-    <t>0x40014400</t>
-  </si>
-  <si>
-    <t>Timer11</t>
-  </si>
-  <si>
-    <t>0x40014800</t>
-  </si>
-  <si>
-    <t>I2C1</t>
-  </si>
-  <si>
-    <t>0x4000 5400</t>
-  </si>
-  <si>
-    <t>I2C2</t>
-  </si>
-  <si>
-    <t>0x4000 5800</t>
-  </si>
-  <si>
-    <t>I2C3</t>
-  </si>
-  <si>
-    <t>0x4000 5C00</t>
-  </si>
-  <si>
-    <t>USART1</t>
-  </si>
-  <si>
-    <t>0x4001 1000</t>
-  </si>
-  <si>
-    <t>USART2</t>
-  </si>
-  <si>
-    <t>0x4000 4400</t>
-  </si>
-  <si>
-    <t>USART6</t>
-  </si>
-  <si>
-    <t>0x4001 1400</t>
-  </si>
-  <si>
     <t>SPI2_RX</t>
   </si>
   <si>
-    <t>SPI1</t>
+    <t>TIM8_CH1 TIM8_CH2 TIM8_CH3</t>
   </si>
   <si>
     <t>SPI2_TX</t>
   </si>
   <si>
-    <t>0x4001 3000</t>
-  </si>
-  <si>
-    <t>SPI2</t>
-  </si>
-  <si>
-    <t>0x4000 3800</t>
-  </si>
-  <si>
-    <t>SPI3</t>
-  </si>
-  <si>
-    <t>0x4000 3C00</t>
-  </si>
-  <si>
-    <t>SPI4</t>
-  </si>
-  <si>
-    <t>0x4001 3400</t>
-  </si>
-  <si>
-    <t>SPI5</t>
-  </si>
-  <si>
-    <t>0x4001 5000</t>
-  </si>
-  <si>
-    <t>DMA1</t>
-  </si>
-  <si>
-    <t>0x4002 6000</t>
-  </si>
-  <si>
-    <t>DMA2</t>
-  </si>
-  <si>
-    <t>0x4002 6400</t>
-  </si>
-  <si>
-    <t>SYSCFG</t>
-  </si>
-  <si>
-    <t>0x4001 3800</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>AF0</t>
-  </si>
-  <si>
-    <t>AF1</t>
-  </si>
-  <si>
-    <t>AF2</t>
-  </si>
-  <si>
-    <t>AF3</t>
-  </si>
-  <si>
-    <t>AF4</t>
-  </si>
-  <si>
-    <t>AF5</t>
-  </si>
-  <si>
-    <t>AF6</t>
-  </si>
-  <si>
-    <t>AF7</t>
-  </si>
-  <si>
-    <t>AF8</t>
-  </si>
-  <si>
-    <t>AF9</t>
-  </si>
-  <si>
-    <t>AF10</t>
-  </si>
-  <si>
-    <t>AF11</t>
-  </si>
-  <si>
-    <t>AF12</t>
-  </si>
-  <si>
-    <t>AF13</t>
-  </si>
-  <si>
-    <t>AF14</t>
-  </si>
-  <si>
-    <t>AF15</t>
-  </si>
-  <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>TIM2_CH1</t>
-  </si>
-  <si>
-    <t>TIM5_CH1</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
     <t>SPI3_TX</t>
   </si>
   <si>
-    <t>TIM2_CH2</t>
-  </si>
-  <si>
-    <t>TIM5_CH2</t>
-  </si>
-  <si>
-    <t>SPI4_MOSI</t>
-  </si>
-  <si>
-    <t>PA2</t>
+    <t>TIM1_CH1 TIM1_CH2 TIM1_CH3</t>
   </si>
   <si>
     <t>Channel 1</t>
@@ -314,82 +765,40 @@
     <t>I2C1_RX</t>
   </si>
   <si>
-    <t>TIM2_CH3</t>
-  </si>
-  <si>
-    <t>TIM5_CH3</t>
+    <t>ADC2</t>
   </si>
   <si>
     <t>TIM7_UP</t>
   </si>
   <si>
-    <t>TIM9_CH1</t>
-  </si>
-  <si>
-    <t>USART2_TX</t>
-  </si>
-  <si>
     <t>I2C1_TX</t>
   </si>
   <si>
-    <t>PA3</t>
-  </si>
-  <si>
-    <t>TIM2_CH4</t>
-  </si>
-  <si>
-    <t>TIM5_CH4</t>
-  </si>
-  <si>
-    <t>TIM9_CH2</t>
-  </si>
-  <si>
     <t>Channel 2</t>
   </si>
   <si>
-    <t>USART2_RX</t>
-  </si>
-  <si>
-    <t>TIM4_CH1</t>
-  </si>
-  <si>
-    <t>PA4</t>
-  </si>
-  <si>
-    <t>TIM4_CH2</t>
-  </si>
-  <si>
-    <t>SPI1_NSS</t>
-  </si>
-  <si>
-    <t>SPI3_NSS</t>
+    <t>ADC3</t>
   </si>
   <si>
     <t>TIM4_UP</t>
   </si>
   <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>TIM4_CH3</t>
-  </si>
-  <si>
-    <t>SPI1_SCK</t>
-  </si>
-  <si>
     <t>Channel 3</t>
   </si>
   <si>
-    <t>PA6</t>
+    <t>SPI1_RX</t>
+  </si>
+  <si>
+    <t>SPI1_TX</t>
   </si>
   <si>
     <t>I2C3_RX</t>
   </si>
   <si>
-    <t>TIM3_CH1</t>
-  </si>
-  <si>
-    <t>SPI1_MISO</t>
+    <t>Channel 4</t>
+  </si>
+  <si>
+    <t>SPI4_TX</t>
   </si>
   <si>
     <t>I2C3_TX</t>
@@ -398,16 +807,7 @@
     <t>TIM2_CH2 TIM2_CH4</t>
   </si>
   <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>TIM3_CH2</t>
-  </si>
-  <si>
-    <t>SPI1_MOSI</t>
-  </si>
-  <si>
-    <t>Channel 4</t>
+    <t>Channel 5</t>
   </si>
   <si>
     <t>UART5_RX</t>
@@ -416,100 +816,94 @@
     <t>USART3_RX</t>
   </si>
   <si>
+    <t>Channel 6</t>
+  </si>
+  <si>
     <t>UART4_RX</t>
   </si>
   <si>
-    <t>PA8</t>
+    <t>TIM1_TRIG</t>
   </si>
   <si>
     <t>USART3_TX</t>
   </si>
   <si>
-    <t>TIM1_CH1</t>
+    <t>settable</t>
+  </si>
+  <si>
+    <t>TIM1_CH4 TIM1_TRIG TIM1_COM</t>
+  </si>
+  <si>
+    <t>TIM1_UP</t>
+  </si>
+  <si>
+    <t>WWDG</t>
   </si>
   <si>
     <t>UART4_TX</t>
   </si>
   <si>
-    <t>I2C3_SCL</t>
-  </si>
-  <si>
-    <t>PA9</t>
+    <t>Window Watchdog interrupt</t>
+  </si>
+  <si>
+    <t>0x00000040</t>
+  </si>
+  <si>
+    <t>Channel 7</t>
+  </si>
+  <si>
+    <t>TIM8_UP</t>
   </si>
   <si>
     <t>UART5_TX</t>
   </si>
   <si>
-    <t>TIM1_CH2</t>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-  </si>
-  <si>
-    <t>Channel 5</t>
-  </si>
-  <si>
-    <t>TIM3_CH4</t>
-  </si>
-  <si>
-    <t>PA10</t>
-  </si>
-  <si>
-    <t>TIM1_CH3</t>
+    <t>TIM8_CH2</t>
+  </si>
+  <si>
+    <t>TIM8_CH3</t>
+  </si>
+  <si>
+    <t>TIM8_CH4 TIM8_TRIG TIM8_COM</t>
   </si>
   <si>
     <t>TIM3_CH1 TIM3_TRIG</t>
   </si>
   <si>
-    <t>SPI5_MOSI</t>
-  </si>
-  <si>
-    <t>USART1_RX</t>
-  </si>
-  <si>
-    <t>TIM3_CH3</t>
-  </si>
-  <si>
-    <t>PA11</t>
-  </si>
-  <si>
-    <t>TIM1_CH4</t>
-  </si>
-  <si>
-    <t>Channel 6</t>
-  </si>
-  <si>
-    <t>SPI4_MISO</t>
+    <t>PVD</t>
+  </si>
+  <si>
+    <t>PVD through EXTI line detection interrupt</t>
+  </si>
+  <si>
+    <t>0x00000044</t>
   </si>
   <si>
     <t>TIM5_CH3 TIM5_UP</t>
   </si>
   <si>
-    <t>USART6_TX</t>
-  </si>
-  <si>
     <t>TIM5_CH4 TIM5_TRIG</t>
   </si>
   <si>
-    <t>PA12</t>
-  </si>
-  <si>
-    <t>SPI5_MISO</t>
-  </si>
-  <si>
-    <t>USART6_RX</t>
+    <t>TAMP_STAMP</t>
+  </si>
+  <si>
+    <t>Tamper and TimeStamp interrupts through the EXTI line</t>
+  </si>
+  <si>
+    <t>0x00000048</t>
   </si>
   <si>
     <t>TIM5_UP</t>
   </si>
   <si>
-    <t>PA13</t>
-  </si>
-  <si>
-    <t>Channel 7</t>
-  </si>
-  <si>
-    <t>PA14</t>
+    <t>RTC_WKUP</t>
+  </si>
+  <si>
+    <t>RTC Wakeup interrupt through the EXTI line</t>
+  </si>
+  <si>
+    <t>0x0000004C</t>
   </si>
   <si>
     <t>TIM6_UP</t>
@@ -518,7 +912,13 @@
     <t>I2C2_RX</t>
   </si>
   <si>
-    <t>PA15</t>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>Flash global interrupt</t>
+  </si>
+  <si>
+    <t>0x00000050</t>
   </si>
   <si>
     <t>DAC1</t>
@@ -528,348 +928,6 @@
   </si>
   <si>
     <t>I2C2_TX</t>
-  </si>
-  <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>SPI5_SCK</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>SPI5_NSS</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>SPI3_SCK</t>
-  </si>
-  <si>
-    <t>I2C2_SDA</t>
-  </si>
-  <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>SPI3_MISO</t>
-  </si>
-  <si>
-    <t>I2C3_SDA</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>SPI3_MOSI</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>I2C1_SCL</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>I2C1_SDA</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>TIM10_CH1</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
-    <t>TIM4_CH4</t>
-  </si>
-  <si>
-    <t>TIM11_CH1</t>
-  </si>
-  <si>
-    <t>SPI2_NSS</t>
-  </si>
-  <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>I2C2_SCL</t>
-  </si>
-  <si>
-    <t>SPI2_SCK</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>PB12</t>
-  </si>
-  <si>
-    <t>SPI4_NSS</t>
-  </si>
-  <si>
-    <t>PB13</t>
-  </si>
-  <si>
-    <t>SPI4_SCK</t>
-  </si>
-  <si>
-    <t>PB14</t>
-  </si>
-  <si>
-    <t>SPI2_MISO</t>
-  </si>
-  <si>
-    <t>PB15</t>
-  </si>
-  <si>
-    <t>SPI2_MOSI</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>PC8</t>
-  </si>
-  <si>
-    <t>PC9</t>
-  </si>
-  <si>
-    <t>PC10</t>
-  </si>
-  <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>PC12</t>
-  </si>
-  <si>
-    <t>PC13</t>
-  </si>
-  <si>
-    <t>PC14</t>
-  </si>
-  <si>
-    <t>PC15</t>
-  </si>
-  <si>
-    <t>PD0</t>
-  </si>
-  <si>
-    <t>PD1</t>
-  </si>
-  <si>
-    <t>PD2</t>
-  </si>
-  <si>
-    <t>PD3</t>
-  </si>
-  <si>
-    <t>PD4</t>
-  </si>
-  <si>
-    <t>PD5</t>
-  </si>
-  <si>
-    <t>PD6</t>
-  </si>
-  <si>
-    <t>PD7</t>
-  </si>
-  <si>
-    <t>PD8</t>
-  </si>
-  <si>
-    <t>PD9</t>
-  </si>
-  <si>
-    <t>PD10</t>
-  </si>
-  <si>
-    <t>PD11</t>
-  </si>
-  <si>
-    <t>PD12</t>
-  </si>
-  <si>
-    <t>PD13</t>
-  </si>
-  <si>
-    <t>PD14</t>
-  </si>
-  <si>
-    <t>PD15</t>
-  </si>
-  <si>
-    <t>PE0</t>
-  </si>
-  <si>
-    <t>PE1</t>
-  </si>
-  <si>
-    <t>PE2</t>
-  </si>
-  <si>
-    <t>PE3</t>
-  </si>
-  <si>
-    <t>PE4</t>
-  </si>
-  <si>
-    <t>PE5</t>
-  </si>
-  <si>
-    <t>PE6</t>
-  </si>
-  <si>
-    <t>PE7</t>
-  </si>
-  <si>
-    <t>PE8</t>
-  </si>
-  <si>
-    <t>PE9</t>
-  </si>
-  <si>
-    <t>PE10</t>
-  </si>
-  <si>
-    <t>PE11</t>
-  </si>
-  <si>
-    <t>PE12</t>
-  </si>
-  <si>
-    <t>PE13</t>
-  </si>
-  <si>
-    <t>PE14</t>
-  </si>
-  <si>
-    <t>PE15</t>
-  </si>
-  <si>
-    <t>ADC1</t>
-  </si>
-  <si>
-    <t>TIM8_CH1 TIM8_CH2 TIM8_CH3</t>
-  </si>
-  <si>
-    <t>TIM1_CH1 TIM1_CH2 TIM1_CH3</t>
-  </si>
-  <si>
-    <t>ADC2</t>
-  </si>
-  <si>
-    <t>ADC3</t>
-  </si>
-  <si>
-    <t>SPI1_RX</t>
-  </si>
-  <si>
-    <t>SPI1_TX</t>
-  </si>
-  <si>
-    <t>SPI4_TX</t>
-  </si>
-  <si>
-    <t>TIM1_TRIG</t>
-  </si>
-  <si>
-    <t>TIM1_CH4 TIM1_TRIG TIM1_COM</t>
-  </si>
-  <si>
-    <t>TIM1_UP</t>
-  </si>
-  <si>
-    <t>TIM8_UP</t>
-  </si>
-  <si>
-    <t>TIM8_CH2</t>
-  </si>
-  <si>
-    <t>TIM8_CH3</t>
-  </si>
-  <si>
-    <t>TIM8_CH4 TIM8_TRIG TIM8_COM</t>
-  </si>
-  <si>
-    <t>settable</t>
-  </si>
-  <si>
-    <t>WWDG</t>
-  </si>
-  <si>
-    <t>Window Watchdog interrupt</t>
-  </si>
-  <si>
-    <t>0x00000040</t>
-  </si>
-  <si>
-    <t>PVD</t>
-  </si>
-  <si>
-    <t>PVD through EXTI line detection interrupt</t>
-  </si>
-  <si>
-    <t>0x00000044</t>
-  </si>
-  <si>
-    <t>TAMP_STAMP</t>
-  </si>
-  <si>
-    <t>Tamper and TimeStamp interrupts through the EXTI line</t>
-  </si>
-  <si>
-    <t>0x00000048</t>
-  </si>
-  <si>
-    <t>RTC_WKUP</t>
-  </si>
-  <si>
-    <t>RTC Wakeup interrupt through the EXTI line</t>
-  </si>
-  <si>
-    <t>0x0000004C</t>
-  </si>
-  <si>
-    <t>FLASH</t>
-  </si>
-  <si>
-    <t>Flash global interrupt</t>
-  </si>
-  <si>
-    <t>0x00000050</t>
   </si>
   <si>
     <t>RCC</t>
@@ -1588,20 +1646,20 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1631,6 +1689,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -1652,835 +1714,835 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
         <v>119</v>
       </c>
-      <c r="H22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I22" t="s">
-        <v>149</v>
-      </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" t="s">
         <v>118</v>
       </c>
-      <c r="E27" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" t="s">
-        <v>185</v>
-      </c>
-      <c r="H27" t="s">
-        <v>148</v>
-      </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G31" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" t="s">
         <v>128</v>
-      </c>
-      <c r="G42" t="s">
-        <v>196</v>
-      </c>
-      <c r="J42" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="I56" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G69" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H69" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H71" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E72" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="H72" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" t="s">
+        <v>183</v>
+      </c>
+      <c r="H78" t="s">
         <v>141</v>
-      </c>
-      <c r="G78" t="s">
-        <v>199</v>
-      </c>
-      <c r="H78" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="G79" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H79" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="H80" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G81" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -3415,1300 +3477,143 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="22.57"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="21.71"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C26">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C28">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
+      <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4726,262 +3631,337 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="22.57"/>
     <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="14.14"/>
+    <col customWidth="1" min="3" max="3" width="21.71"/>
     <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" t="s">
+      <c r="C15">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B16" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C16">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" ht="31.5" customHeight="1">
-      <c r="A5" t="s">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s">
+      <c r="C18">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" t="s">
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C21">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B22" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="C22">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" t="s">
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="B24" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="C24">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="C25">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="C27">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="B28" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="C28">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="B29" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
+      <c r="C29">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30">
+        <v>8.0</v>
+      </c>
+    </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -5975,199 +4955,234 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" customHeight="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" ht="31.5" customHeight="1">
       <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>142</v>
+        <v>259</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" ht="42.0" customHeight="1">
+        <v>263</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
       <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" ht="42.75" customHeight="1">
+        <v>266</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
       <c r="A10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -7175,6 +6190,1214 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="22.57"/>
+    <col customWidth="1" min="2" max="2" width="17.86"/>
+    <col customWidth="1" min="3" max="3" width="14.14"/>
+    <col customWidth="1" min="4" max="6" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" ht="31.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" ht="31.5" customHeight="1">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="31.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="31.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" ht="42.0" customHeight="1">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" ht="42.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="11.29"/>
     <col customWidth="1" min="2" max="2" width="15.0"/>
     <col customWidth="1" min="3" max="3" width="11.71"/>
@@ -7185,2237 +7408,2237 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>7.0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>272</v>
+      <c r="D2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="3" ht="42.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>8.0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>9.0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="31.5" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>3.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>10.0</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>4.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>11.0</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>5.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>12.0</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="C7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>6.0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>13.0</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="C8" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" ht="42.0" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>7.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>14.0</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" ht="30.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>8.0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>15.0</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="C10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>9.0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>16.0</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>299</v>
+      <c r="C11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>10.0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>17.0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>302</v>
+      <c r="C12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>11.0</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>18.0</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>305</v>
+      <c r="C13" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>12.0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>19.0</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>308</v>
+      <c r="C14" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>13.0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>20.0</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>311</v>
+      <c r="C15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>14.0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>21.0</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>314</v>
+      <c r="C16" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>15.0</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>22.0</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>317</v>
+      <c r="C17" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>16.0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>23.0</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>320</v>
+      <c r="C18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>17.0</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>24.0</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>323</v>
+      <c r="C19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>18.0</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>25.0</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>326</v>
+      <c r="C20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>19.0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>26.0</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>329</v>
+      <c r="C21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>20.0</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>27.0</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>332</v>
+      <c r="C22" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>21.0</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>28.0</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>335</v>
+      <c r="C23" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>22.0</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>29.0</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>338</v>
+      <c r="C24" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>23.0</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>30.0</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>341</v>
+      <c r="C25" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>24.0</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>31.0</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>344</v>
+      <c r="C26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>25.0</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>32.0</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>347</v>
+      <c r="C27" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>26.0</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>33.0</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>350</v>
+      <c r="C28" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>27.0</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>34.0</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>353</v>
+      <c r="C29" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>28.0</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>35.0</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>356</v>
+      <c r="C30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>29.0</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>36.0</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>359</v>
+      <c r="C31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>30.0</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>37.0</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>362</v>
+      <c r="C32" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>31.0</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>38.0</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>365</v>
+      <c r="C33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>32.0</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>39.0</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>368</v>
+      <c r="C34" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>33.0</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>40.0</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>371</v>
+      <c r="C35" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>34.0</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>41.0</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>374</v>
+      <c r="C36" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>35.0</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>42.0</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>376</v>
+      <c r="C37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>36.0</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>43.0</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>378</v>
+      <c r="C38" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>37.0</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>44.0</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>380</v>
+      <c r="C39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>38.0</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>45.0</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>382</v>
+      <c r="C40" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>39.0</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>46.0</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>385</v>
+      <c r="C41" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>40.0</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>47.0</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>388</v>
+      <c r="C42" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>41.0</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>48.0</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>391</v>
+      <c r="C43" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>42.0</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>49.0</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>394</v>
+      <c r="C44" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>43.0</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>50.0</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>397</v>
+      <c r="C45" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>44.0</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>51.0</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>400</v>
+      <c r="C46" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>45.0</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>52.0</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>403</v>
+      <c r="C47" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>46.0</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>53.0</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>406</v>
+      <c r="C48" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>47.0</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>54.0</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>409</v>
+      <c r="C49" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>48.0</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>55.0</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>412</v>
+      <c r="C50" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>49.0</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>56.0</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>415</v>
+      <c r="C51" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>50.0</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>57.0</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>418</v>
+      <c r="C52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>51.0</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>58.0</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>420</v>
+      <c r="C53" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>52.0</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>59.0</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>423</v>
+      <c r="C54" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>53.0</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>60.0</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>426</v>
+      <c r="C55" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>54.0</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>61.0</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>429</v>
+      <c r="C56" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>55.0</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>62.0</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>432</v>
+      <c r="C57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>56.0</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>63.0</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>435</v>
+      <c r="C58" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>57.0</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="5">
         <v>64.0</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>438</v>
+      <c r="C59" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>58.0</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="5">
         <v>65.0</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>441</v>
+      <c r="C60" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>59.0</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>66.0</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>444</v>
+      <c r="C61" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>60.0</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="5">
         <v>67.0</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>447</v>
+      <c r="C62" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>61.0</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="5">
         <v>68.0</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>450</v>
+      <c r="C63" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>62.0</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="5">
         <v>69.0</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>453</v>
+      <c r="C64" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>63.0</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="5">
         <v>70.0</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>456</v>
+      <c r="C65" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>64.0</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="5">
         <v>71.0</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>459</v>
+      <c r="C66" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>65.0</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="5">
         <v>72.0</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>462</v>
+      <c r="C67" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>66.0</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="5">
         <v>73.0</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>465</v>
+      <c r="C68" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>67.0</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="5">
         <v>74.0</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>468</v>
+      <c r="C69" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>68.0</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="5">
         <v>75.0</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>471</v>
+      <c r="C70" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>69.0</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="5">
         <v>76.0</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>474</v>
+      <c r="C71" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>70.0</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="5">
         <v>77.0</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>477</v>
+      <c r="C72" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>71.0</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="5">
         <v>78.0</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>479</v>
+      <c r="C73" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>72.0</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="5">
         <v>79.0</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>482</v>
+      <c r="C74" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>73.0</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="5">
         <v>80.0</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>485</v>
+      <c r="C75" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>74.0</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="5">
         <v>81.0</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>488</v>
+      <c r="C76" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>75.0</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="5">
         <v>82.0</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>491</v>
+      <c r="C77" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>76.0</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="5">
         <v>83.0</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>494</v>
+      <c r="C78" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>77.0</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="5">
         <v>84.0</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>497</v>
+      <c r="C79" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>78.0</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="5">
         <v>85.0</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>500</v>
+      <c r="C80" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>79.0</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="5">
         <v>86.0</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>503</v>
+      <c r="C81" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>80.0</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="5">
         <v>87.0</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>506</v>
+      <c r="C82" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>81.0</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="5">
         <v>88.0</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>509</v>
+      <c r="C83" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
     </row>
     <row r="164" ht="15.75" customHeight="1"/>
     <row r="165" ht="15.75" customHeight="1"/>
